--- a/data/trans_orig/P35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAEF031-B187-47AC-B0F7-1583BB19EB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7601CA5F-8CB0-4FE4-A681-EC8654DDD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D502415-235F-4B85-8E30-902417588515}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{169F6273-83FB-4844-A794-76AAC580C16C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>30,6%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,4%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>67,1%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>12,95%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,649 +311,637 @@
     <t>38,99%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>76,86%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>69,32%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>65,41%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>67,07%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>64,96%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>60,88%</t>
   </si>
   <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2F263-1C35-4571-B24E-333509BFD35E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CDD2B3-C3F0-4532-A1C1-AC242A341863}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1710,7 @@
         <v>2650</v>
       </c>
       <c r="N8" s="7">
-        <v>2716344</v>
+        <v>2716343</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1761,7 @@
         <v>3043</v>
       </c>
       <c r="N9" s="7">
-        <v>3115770</v>
+        <v>3115769</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1990,7 @@
         <v>2513</v>
       </c>
       <c r="D14" s="7">
-        <v>2579902</v>
+        <v>2579901</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2053,7 +2041,7 @@
         <v>3068</v>
       </c>
       <c r="D15" s="7">
-        <v>3127223</v>
+        <v>3127222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCE2E9-27E3-414D-A960-A6EF558D6F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4142FD6-E9FD-482E-80DC-6C94877C817B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2306,7 @@
         <v>1213</v>
       </c>
       <c r="N5" s="7">
-        <v>1298133</v>
+        <v>1298134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2369,7 +2357,7 @@
         <v>2100</v>
       </c>
       <c r="N6" s="7">
-        <v>2256224</v>
+        <v>2256225</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2541,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2565,13 +2553,13 @@
         <v>123853</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -2580,13 +2568,13 @@
         <v>211000</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2589,13 @@
         <v>382106</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -2616,13 +2604,13 @@
         <v>320609</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2631,13 +2619,13 @@
         <v>702715</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2693,13 @@
         <v>863004</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1090</v>
@@ -2720,13 +2708,13 @@
         <v>1186279</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1878</v>
@@ -2735,13 +2723,13 @@
         <v>2049282</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,16 +2741,16 @@
         <v>2323</v>
       </c>
       <c r="D14" s="7">
-        <v>2457532</v>
+        <v>2457533</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2104</v>
@@ -2771,13 +2759,13 @@
         <v>2261757</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4427</v>
@@ -2786,13 +2774,13 @@
         <v>4719290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2792,7 @@
         <v>3111</v>
       </c>
       <c r="D15" s="7">
-        <v>3320536</v>
+        <v>3320537</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F95D3FF-A6EE-45BC-AD00-ADC9814D1BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F79B929-2FC8-4F93-9071-0F50C1E1F088}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2979,13 @@
         <v>311273</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>435</v>
@@ -3006,13 +2994,13 @@
         <v>485860</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>754</v>
@@ -3021,13 +3009,13 @@
         <v>797134</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3030,13 @@
         <v>428316</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>446</v>
@@ -3057,13 +3045,13 @@
         <v>497166</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>874</v>
@@ -3072,13 +3060,13 @@
         <v>925481</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3134,13 @@
         <v>492145</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>544</v>
@@ -3161,13 +3149,13 @@
         <v>579662</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>998</v>
@@ -3176,13 +3164,13 @@
         <v>1071807</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3185,13 @@
         <v>1555565</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1344</v>
@@ -3212,13 +3200,13 @@
         <v>1386709</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2814</v>
@@ -3227,13 +3215,13 @@
         <v>2942275</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3289,13 @@
         <v>126981</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>141</v>
@@ -3316,13 +3304,13 @@
         <v>148945</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -3331,13 +3319,13 @@
         <v>275926</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3340,13 @@
         <v>408508</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>374</v>
@@ -3367,13 +3355,13 @@
         <v>387179</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>753</v>
@@ -3382,13 +3370,13 @@
         <v>795686</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,10 +3447,10 @@
         <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>1120</v>
@@ -3471,13 +3459,13 @@
         <v>1214467</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>2006</v>
@@ -3486,13 +3474,13 @@
         <v>2144867</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,10 +3498,10 @@
         <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2164</v>
@@ -3522,13 +3510,13 @@
         <v>2271054</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4441</v>
@@ -3537,13 +3525,13 @@
         <v>4663442</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4967BCAD-9BE1-498E-A918-29D0F8B2C3AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F3AC-1F90-446A-A368-7B4F067180B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3730,13 @@
         <v>236864</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>697</v>
@@ -3757,13 +3745,13 @@
         <v>416368</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1013</v>
@@ -3772,13 +3760,13 @@
         <v>653232</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3781,13 @@
         <v>304770</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>727</v>
@@ -3808,13 +3796,13 @@
         <v>415751</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1102</v>
@@ -3823,13 +3811,13 @@
         <v>720520</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3885,13 @@
         <v>724700</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1090</v>
@@ -3912,13 +3900,13 @@
         <v>800557</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>1824</v>
@@ -3927,13 +3915,13 @@
         <v>1525258</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3936,13 @@
         <v>1437322</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1828</v>
@@ -3963,13 +3951,13 @@
         <v>1446919</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3086</v>
@@ -3978,13 +3966,13 @@
         <v>2884240</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4040,13 @@
         <v>221641</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
@@ -4067,13 +4055,13 @@
         <v>200536</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>516</v>
@@ -4082,13 +4070,13 @@
         <v>422178</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4091,13 @@
         <v>451398</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
@@ -4118,13 +4106,13 @@
         <v>512843</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1168</v>
@@ -4133,13 +4121,13 @@
         <v>964240</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4195,13 @@
         <v>1183205</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2069</v>
@@ -4222,13 +4210,13 @@
         <v>1417462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>3353</v>
@@ -4237,13 +4225,13 @@
         <v>2600667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,16 +4243,16 @@
         <v>2080</v>
       </c>
       <c r="D14" s="7">
-        <v>2193490</v>
+        <v>2193489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>3276</v>
@@ -4273,28 +4261,28 @@
         <v>2375512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5356</v>
       </c>
       <c r="N14" s="7">
-        <v>4569002</v>
+        <v>4569001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169669</v>
+        <v>7169668</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7601CA5F-8CB0-4FE4-A681-EC8654DDD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{678677FD-0084-4F46-9D8E-8B666FD7E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{169F6273-83FB-4844-A794-76AAC580C16C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA00E0F6-6D99-4396-86C0-3CEE9558FD98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>30,6%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,4%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>67,1%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,742 +197,754 @@
     <t>12,95%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,27%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>85,29%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>46,27%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>50,58%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>34,84%</t>
   </si>
   <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>66,61%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
   </si>
   <si>
     <t>63,73%</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CDD2B3-C3F0-4532-A1C1-AC242A341863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98159BE8-F75A-4F18-8351-4312A4C1003B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +2002,7 @@
         <v>2513</v>
       </c>
       <c r="D14" s="7">
-        <v>2579901</v>
+        <v>2579902</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2041,7 +2053,7 @@
         <v>3068</v>
       </c>
       <c r="D15" s="7">
-        <v>3127222</v>
+        <v>3127223</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4142FD6-E9FD-482E-80DC-6C94877C817B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F528F9-E397-4146-A76D-0A35CA347920}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2306,7 +2318,7 @@
         <v>1213</v>
       </c>
       <c r="N5" s="7">
-        <v>1298134</v>
+        <v>1298133</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2357,7 +2369,7 @@
         <v>2100</v>
       </c>
       <c r="N6" s="7">
-        <v>2256225</v>
+        <v>2256224</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2541,10 +2553,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2553,13 +2565,13 @@
         <v>123853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -2568,13 +2580,13 @@
         <v>211000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2601,13 @@
         <v>382106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -2604,13 +2616,13 @@
         <v>320609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2619,13 +2631,13 @@
         <v>702715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2705,13 @@
         <v>863004</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1090</v>
@@ -2708,13 +2720,13 @@
         <v>1186279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1878</v>
@@ -2723,13 +2735,13 @@
         <v>2049282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,16 +2753,16 @@
         <v>2323</v>
       </c>
       <c r="D14" s="7">
-        <v>2457533</v>
+        <v>2457532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2104</v>
@@ -2759,13 +2771,13 @@
         <v>2261757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4427</v>
@@ -2774,13 +2786,13 @@
         <v>4719290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2804,7 @@
         <v>3111</v>
       </c>
       <c r="D15" s="7">
-        <v>3320537</v>
+        <v>3320536</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F79B929-2FC8-4F93-9071-0F50C1E1F088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B29C9-36F0-41D4-BFC2-93EEFEBE882B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2991,13 @@
         <v>311273</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>435</v>
@@ -2994,13 +3006,13 @@
         <v>485860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>754</v>
@@ -3009,13 +3021,13 @@
         <v>797134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>428316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>446</v>
@@ -3045,13 +3057,13 @@
         <v>497166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>874</v>
@@ -3060,13 +3072,13 @@
         <v>925481</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>492145</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>544</v>
@@ -3149,13 +3161,13 @@
         <v>579662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>998</v>
@@ -3164,13 +3176,13 @@
         <v>1071807</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>1555565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1344</v>
@@ -3200,13 +3212,13 @@
         <v>1386709</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2814</v>
@@ -3215,13 +3227,13 @@
         <v>2942275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>126981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>141</v>
@@ -3304,13 +3316,13 @@
         <v>148945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -3319,13 +3331,13 @@
         <v>275926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>408508</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>374</v>
@@ -3355,13 +3367,13 @@
         <v>387179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>753</v>
@@ -3370,13 +3382,13 @@
         <v>795686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,10 +3459,10 @@
         <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>1120</v>
@@ -3459,13 +3471,13 @@
         <v>1214467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>2006</v>
@@ -3474,13 +3486,13 @@
         <v>2144867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,10 +3510,10 @@
         <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2164</v>
@@ -3510,13 +3522,13 @@
         <v>2271054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4441</v>
@@ -3525,13 +3537,13 @@
         <v>4663442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F3AC-1F90-446A-A368-7B4F067180B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C4CD08-6033-4BBA-8F01-067485900511}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>236864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>697</v>
@@ -3745,13 +3757,13 @@
         <v>416368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1013</v>
@@ -3760,13 +3772,13 @@
         <v>653232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>304770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>727</v>
@@ -3796,13 +3808,13 @@
         <v>415751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1102</v>
@@ -3811,13 +3823,13 @@
         <v>720520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>724700</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1090</v>
@@ -3900,13 +3912,13 @@
         <v>800557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>1824</v>
@@ -3915,13 +3927,13 @@
         <v>1525258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>1437322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1828</v>
@@ -3951,13 +3963,13 @@
         <v>1446919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3086</v>
@@ -3966,13 +3978,13 @@
         <v>2884240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>221641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
@@ -4055,13 +4067,13 @@
         <v>200536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>516</v>
@@ -4070,13 +4082,13 @@
         <v>422178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>451398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
@@ -4106,13 +4118,13 @@
         <v>512843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1168</v>
@@ -4121,13 +4133,13 @@
         <v>964240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>1183205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2069</v>
@@ -4210,13 +4222,13 @@
         <v>1417462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3353</v>
@@ -4225,13 +4237,13 @@
         <v>2600667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>2193489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3276</v>
@@ -4261,13 +4273,13 @@
         <v>2375512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5356</v>
@@ -4276,13 +4288,13 @@
         <v>4569001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{678677FD-0084-4F46-9D8E-8B666FD7E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C68F240-9170-4511-A4F3-4B8DE0C67FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA00E0F6-6D99-4396-86C0-3CEE9558FD98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28A7BACD-710B-485C-B3CE-2FEACB981DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>30,6%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,4%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>67,1%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>12,95%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,25 +311,25 @@
     <t>38,99%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>40,4%</t>
+    <t>40,29%</t>
   </si>
   <si>
     <t>44,63%</t>
@@ -338,19 +338,19 @@
     <t>61,01%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
   </si>
   <si>
     <t>57,54%</t>
@@ -359,601 +359,601 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>59,6%</t>
+    <t>59,71%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>23,67%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>74,78%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>64,96%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98159BE8-F75A-4F18-8351-4312A4C1003B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412E1EB-AB3A-48E3-B263-99D976571A10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1722,7 @@
         <v>2650</v>
       </c>
       <c r="N8" s="7">
-        <v>2716343</v>
+        <v>2716344</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1773,7 @@
         <v>3043</v>
       </c>
       <c r="N9" s="7">
-        <v>3115769</v>
+        <v>3115770</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F528F9-E397-4146-A76D-0A35CA347920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D27C05-8F23-4261-8FF0-480EBF756E78}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B29C9-36F0-41D4-BFC2-93EEFEBE882B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ED0B0A-EF2F-4B48-808D-266B40C2AAE3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C4CD08-6033-4BBA-8F01-067485900511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC499D-253A-4228-BBAF-0B78C5D9A1BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4255,7 +4255,7 @@
         <v>2080</v>
       </c>
       <c r="D14" s="7">
-        <v>2193489</v>
+        <v>2193490</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4285,7 +4285,7 @@
         <v>5356</v>
       </c>
       <c r="N14" s="7">
-        <v>4569001</v>
+        <v>4569002</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4306,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169668</v>
+        <v>7169669</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C68F240-9170-4511-A4F3-4B8DE0C67FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BEDF76-EA67-4CB6-9D6D-5C51C3628AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28A7BACD-710B-485C-B3CE-2FEACB981DCD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{62E458F5-A8EF-432C-9050-DFC2CF0CE4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -740,220 +740,208 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412E1EB-AB3A-48E3-B263-99D976571A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190F6735-1617-4AF0-9207-4D11A2869645}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1501,7 +1489,7 @@
         <v>408</v>
       </c>
       <c r="I4" s="7">
-        <v>412728</v>
+        <v>412727</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1603,7 +1591,7 @@
         <v>1231</v>
       </c>
       <c r="I6" s="7">
-        <v>1254526</v>
+        <v>1254525</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1710,7 @@
         <v>2650</v>
       </c>
       <c r="N8" s="7">
-        <v>2716344</v>
+        <v>2716343</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1761,7 @@
         <v>3043</v>
       </c>
       <c r="N9" s="7">
-        <v>3115770</v>
+        <v>3115769</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D27C05-8F23-4261-8FF0-480EBF756E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8699F1B-8FB6-460D-BC65-A79383CAFC16}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2306,7 @@
         <v>1213</v>
       </c>
       <c r="N5" s="7">
-        <v>1298133</v>
+        <v>1298134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2369,7 +2357,7 @@
         <v>2100</v>
       </c>
       <c r="N6" s="7">
-        <v>2256224</v>
+        <v>2256225</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2473,7 +2461,7 @@
         <v>2573</v>
       </c>
       <c r="N8" s="7">
-        <v>2718441</v>
+        <v>2718442</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2524,7 +2512,7 @@
         <v>3378</v>
       </c>
       <c r="N9" s="7">
-        <v>3598632</v>
+        <v>3598633</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2753,7 +2741,7 @@
         <v>2323</v>
       </c>
       <c r="D14" s="7">
-        <v>2457532</v>
+        <v>2457533</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>152</v>
@@ -2804,7 +2792,7 @@
         <v>3111</v>
       </c>
       <c r="D15" s="7">
-        <v>3320536</v>
+        <v>3320537</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ED0B0A-EF2F-4B48-808D-266B40C2AAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5950549F-BD44-4391-A2F9-AE9B3083594D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3364,7 +3352,7 @@
         <v>374</v>
       </c>
       <c r="I11" s="7">
-        <v>387179</v>
+        <v>387178</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>210</v>
@@ -3415,7 +3403,7 @@
         <v>515</v>
       </c>
       <c r="I12" s="7">
-        <v>536124</v>
+        <v>536123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC499D-253A-4228-BBAF-0B78C5D9A1BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19F532-6A13-4293-8880-5F5B3D8E1CF0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3727,7 @@
         <v>316</v>
       </c>
       <c r="D4" s="7">
-        <v>236864</v>
+        <v>218432</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3742,7 @@
         <v>697</v>
       </c>
       <c r="I4" s="7">
-        <v>416368</v>
+        <v>368488</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,16 +3757,16 @@
         <v>1013</v>
       </c>
       <c r="N4" s="7">
-        <v>653232</v>
+        <v>586920</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,46 +3778,46 @@
         <v>375</v>
       </c>
       <c r="D5" s="7">
-        <v>304770</v>
+        <v>296506</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>727</v>
       </c>
       <c r="I5" s="7">
-        <v>415751</v>
+        <v>383734</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1102</v>
       </c>
       <c r="N5" s="7">
-        <v>720520</v>
+        <v>680240</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3829,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3844,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>832119</v>
+        <v>752222</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3859,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373752</v>
+        <v>1267160</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,46 +3882,46 @@
         <v>734</v>
       </c>
       <c r="D7" s="7">
-        <v>724700</v>
+        <v>665122</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1090</v>
       </c>
       <c r="I7" s="7">
-        <v>800557</v>
+        <v>709944</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>1824</v>
       </c>
       <c r="N7" s="7">
-        <v>1525258</v>
+        <v>1375066</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,46 +3933,46 @@
         <v>1258</v>
       </c>
       <c r="D8" s="7">
-        <v>1437322</v>
+        <v>1625205</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1828</v>
       </c>
       <c r="I8" s="7">
-        <v>1446919</v>
+        <v>1525970</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3086</v>
       </c>
       <c r="N8" s="7">
-        <v>2884240</v>
+        <v>3151175</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3984,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +3999,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247476</v>
+        <v>2235914</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4014,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409498</v>
+        <v>4526241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,46 +4037,46 @@
         <v>234</v>
       </c>
       <c r="D10" s="7">
-        <v>221641</v>
+        <v>206304</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
       </c>
       <c r="I10" s="7">
-        <v>200536</v>
+        <v>182087</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>516</v>
       </c>
       <c r="N10" s="7">
-        <v>422178</v>
+        <v>388392</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,46 +4088,46 @@
         <v>447</v>
       </c>
       <c r="D11" s="7">
-        <v>451398</v>
+        <v>440319</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
       </c>
       <c r="I11" s="7">
-        <v>512843</v>
+        <v>477916</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1168</v>
       </c>
       <c r="N11" s="7">
-        <v>964240</v>
+        <v>918235</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4139,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4154,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713379</v>
+        <v>660003</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4169,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386418</v>
+        <v>1306627</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,46 +4192,46 @@
         <v>1284</v>
       </c>
       <c r="D13" s="7">
-        <v>1183205</v>
+        <v>1089858</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2069</v>
       </c>
       <c r="I13" s="7">
-        <v>1417462</v>
+        <v>1260519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>3353</v>
       </c>
       <c r="N13" s="7">
-        <v>2600667</v>
+        <v>2350378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,46 +4243,46 @@
         <v>2080</v>
       </c>
       <c r="D14" s="7">
-        <v>2193490</v>
+        <v>2362031</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>3276</v>
       </c>
       <c r="I14" s="7">
-        <v>2375512</v>
+        <v>2387620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>5356</v>
       </c>
       <c r="N14" s="7">
-        <v>4569002</v>
+        <v>4749650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4309,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3792974</v>
+        <v>3648139</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169669</v>
+        <v>7100028</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
